--- a/scape_results_21.xlsx
+++ b/scape_results_21.xlsx
@@ -494,6 +494,18 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NATIONAL WATCH</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NATIONAL WATCH</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>CHF</t>
@@ -519,11 +531,19 @@
           <t xml:space="preserve"> May 14, 2017 </t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/national-watch-co-lot-307-1?page=0</t>
@@ -566,6 +586,18 @@
           <t>2</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GALLET</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GALLET</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>CHF</t>
@@ -591,11 +623,19 @@
           <t xml:space="preserve"> May 14, 2017 </t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/gallet-cie-lot-307-2?page=0</t>
@@ -635,6 +675,18 @@
           <t>3</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HELVETIA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HELVETIA</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>CHF</t>
@@ -660,11 +712,19 @@
           <t xml:space="preserve"> May 14, 2017 </t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/helvetia-lot-307-3?page=0</t>
@@ -704,6 +764,24 @@
           <t>2</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BELL &amp; ROSS REF. BR 01-97 PVD STEEL LIMITED EDITION
+Bell &amp; Ross</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BELL &amp; ROSS REF. BR 01-97 PVD STEEL LIMITED EDITION
+Bell &amp; Ross</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>HKD</t>
@@ -729,11 +807,19 @@
           <t xml:space="preserve"> Mar 18, 2017 </t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/bell-ross-ref-br-01-97-so-lot-306-2?page=0</t>
@@ -771,6 +857,28 @@
           <t>5</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CHRONOSWISS KLASSIK REF. CH 7443 CHRONOGRAPH STEEL 
+Chronoswiss</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7443</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CHRONOSWISS KLASSIK REF. CH 7443 CHRONOGRAPH STEEL 
+Chronoswiss</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>HKD</t>
@@ -796,11 +904,19 @@
           <t xml:space="preserve"> Mar 18, 2017 </t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/chronoswiss-ref-ch-7443-lot-306-5?page=0</t>
@@ -837,6 +953,24 @@
           <t>8</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VACHERON &amp; CONSTANTIN REF. 33093 YELLOW GOLD
+Vacheron &amp; Constantin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33093</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VACHERON &amp; CONSTANTIN REF. 33093 YELLOW GOLD
+Vacheron &amp; Constantin</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>HKD</t>
@@ -862,11 +996,19 @@
           <t xml:space="preserve"> Mar 18, 2017 </t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Very good</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/vacheron-constantin-ref-33093-lot-306-8?page=0</t>
@@ -897,6 +1039,22 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ORBITA 6 ROTOR WATCH 
+WINDING CABINET WOOD 
+Orbita</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ORBITA 6 ROTOR WATCH 
+WINDING CABINET WOOD 
+Orbita</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>USD</t>
@@ -922,6 +1080,14 @@
           <t xml:space="preserve"> Dec 08, 2016 </t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/orbita-lot-304-1?page=0</t>
@@ -953,6 +1119,22 @@
           <t>2</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ORBITA 12 ROTOR WATCH 
+WINDING CABINET WOOD 
+Orbita</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ORBITA 12 ROTOR WATCH 
+WINDING CABINET WOOD 
+Orbita</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>USD</t>
@@ -978,6 +1160,14 @@
           <t xml:space="preserve"> Dec 08, 2016 </t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/orbita-lot-304-2?page=0</t>
@@ -1013,6 +1203,20 @@
           <t>3</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>JAEGER-LECOULTRE DESK CLOCK BRASS 
+Jaeger-LeCoultre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>JAEGER-LECOULTRE DESK CLOCK BRASS 
+Jaeger-LeCoultre</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>USD</t>
@@ -1038,6 +1242,14 @@
           <t xml:space="preserve"> Dec 08, 2016 </t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
           <t>https://catalog.antiquorum.swiss/en/lots/jaeger-lecoultre-ref-530-lot-304-3?page=0</t>
